--- a/Project/baltparks.xlsx
+++ b/Project/baltparks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25580" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="27140" windowHeight="13280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="20">
   <si>
     <t>Parks</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Druid Hill Park</t>
-  </si>
-  <si>
-    <t>Federal Hill</t>
   </si>
   <si>
     <t>Fort Armistead Park</t>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>Federal Hill Park</t>
   </si>
 </sst>
 </file>
@@ -447,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -463,10 +463,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -474,186 +474,3200 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>39.277223999999997</v>
+        <v>39.277025000000002</v>
       </c>
       <c r="C2">
-        <v>-76.572934000000004</v>
+        <v>-76.570927999999995</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>39.278340999999998</v>
+        <v>39.277406999999997</v>
       </c>
       <c r="C3">
-        <v>-76.642364000000001</v>
+        <v>-76.572311999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>39.360968</v>
+        <v>39.277673</v>
       </c>
       <c r="C4">
-        <v>-76.597910999999996</v>
+        <v>-76.574028999999996</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>39.318834000000003</v>
+        <v>39.277273999999998</v>
       </c>
       <c r="C5">
-        <v>-76.590058999999997</v>
+        <v>-76.574843999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>39.349175000000002</v>
+        <v>39.276643</v>
       </c>
       <c r="C6">
-        <v>-76.650702999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-76.571228000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>39.323718999999997</v>
+        <v>39.277065999999998</v>
       </c>
       <c r="C7">
-        <v>-76.641625000000005</v>
+        <v>-76.572558999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>39.279879999999999</v>
+        <v>39.275565</v>
       </c>
       <c r="C8">
-        <v>-76.608628999999993</v>
+        <v>-76.642212999999998</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>39.244418000000003</v>
+        <v>39.276693999999999</v>
       </c>
       <c r="C9">
-        <v>-76.615412000000006</v>
+        <v>-76.640668000000005</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>39.208317000000001</v>
+        <v>39.278056999999997</v>
       </c>
       <c r="C10">
-        <v>-76.538874000000007</v>
+        <v>-76.639015999999998</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>39.307153</v>
+        <v>39.279634000000001</v>
       </c>
       <c r="C11">
-        <v>-76.686982999999998</v>
+        <v>-76.637020000000007</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>39.319192000000001</v>
+        <v>39.280746999999998</v>
       </c>
       <c r="C12">
-        <v>-76.666899000000001</v>
+        <v>-76.638394000000005</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>39.255189999999999</v>
+        <v>39.281495</v>
       </c>
       <c r="C13">
-        <v>-76.622938000000005</v>
+        <v>-76.639916999999997</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>39.289023999999998</v>
+        <v>39.28098</v>
       </c>
       <c r="C14">
-        <v>-76.579301999999998</v>
+        <v>-76.641441</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>39.226252000000002</v>
+        <v>39.280248999999998</v>
       </c>
       <c r="C15">
-        <v>-76.601634000000004</v>
+        <v>-76.643393000000003</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>39.270527999999999</v>
+        <v>39.279418999999997</v>
       </c>
       <c r="C16">
-        <v>-76.607772999999995</v>
+        <v>-76.645366999999993</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>39.329422000000001</v>
+        <v>39.278837000000003</v>
       </c>
       <c r="C17">
-        <v>-76.635903999999996</v>
+        <v>-76.647813999999997</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>39.278421999999999</v>
+      </c>
+      <c r="C18">
+        <v>-76.650024000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>39.277358999999997</v>
+      </c>
+      <c r="C19">
+        <v>-76.647362999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>39.278255999999999</v>
+      </c>
+      <c r="C20">
+        <v>-76.646140000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>39.276960000000003</v>
+      </c>
+      <c r="C21">
+        <v>-76.644143999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>39.275630999999997</v>
+      </c>
+      <c r="C22">
+        <v>-76.642234999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>39.276977000000002</v>
+      </c>
+      <c r="C23">
+        <v>-76.640320000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>39.278421999999999</v>
+      </c>
+      <c r="C24">
+        <v>-76.638474000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>39.279119999999999</v>
+      </c>
+      <c r="C25">
+        <v>-76.641253000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>39.371630000000003</v>
+      </c>
+      <c r="C26">
+        <v>-76.597245000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>39.370458999999997</v>
+      </c>
+      <c r="C27">
+        <v>-76.598090999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>39.369247999999999</v>
+      </c>
+      <c r="C28">
+        <v>-76.599587999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>39.36824</v>
+      </c>
+      <c r="C29">
+        <v>-76.600172999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>39.366770000000002</v>
+      </c>
+      <c r="C30">
+        <v>-76.599626999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>39.365434999999998</v>
+      </c>
+      <c r="C31">
+        <v>-76.599733000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>39.364305000000002</v>
+      </c>
+      <c r="C32">
+        <v>-76.598816999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>39.362943999999999</v>
+      </c>
+      <c r="C33">
+        <v>-76.598342000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>39.361601999999998</v>
+      </c>
+      <c r="C34">
+        <v>-76.598324000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>39.360335999999997</v>
+      </c>
+      <c r="C35">
+        <v>-76.598446999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>39.358933999999998</v>
+      </c>
+      <c r="C36">
+        <v>-76.599063999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>39.357942000000001</v>
+      </c>
+      <c r="C37">
+        <v>-76.597748999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>39.356506000000003</v>
+      </c>
+      <c r="C38">
+        <v>-76.596354000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>39.354796999999998</v>
+      </c>
+      <c r="C39">
+        <v>-76.595624000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>39.352989000000001</v>
+      </c>
+      <c r="C40">
+        <v>-76.595816999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>39.352556999999997</v>
+      </c>
+      <c r="C41">
+        <v>-76.593715000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>39.351345999999999</v>
+      </c>
+      <c r="C42">
+        <v>-76.593500000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>39.351230000000001</v>
+      </c>
+      <c r="C43">
+        <v>-76.591267999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>39.350051999999998</v>
+      </c>
+      <c r="C44">
+        <v>-76.589166000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>39.349055999999997</v>
+      </c>
+      <c r="C45">
+        <v>-76.587255999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>39.348824</v>
+      </c>
+      <c r="C46">
+        <v>-76.584744999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>39.350135000000002</v>
+      </c>
+      <c r="C47">
+        <v>-76.585496000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>39.350799000000002</v>
+      </c>
+      <c r="C48">
+        <v>-76.587705999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>39.351927000000003</v>
+      </c>
+      <c r="C49">
+        <v>-76.590087999999994</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>39.352556999999997</v>
+      </c>
+      <c r="C50">
+        <v>-76.593091999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>39.366594999999997</v>
+      </c>
+      <c r="C51">
+        <v>-76.598928999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>39.364632999999998</v>
+      </c>
+      <c r="C52">
+        <v>-76.597503000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>39.362428999999999</v>
+      </c>
+      <c r="C53">
+        <v>-76.597274999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>39.359254999999997</v>
+      </c>
+      <c r="C54">
+        <v>-76.597588999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>39.320925000000003</v>
+      </c>
+      <c r="C55">
+        <v>-76.590569000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>39.319065999999999</v>
+      </c>
+      <c r="C56">
+        <v>-76.587457000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>39.317788</v>
+      </c>
+      <c r="C57">
+        <v>-76.588487000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>39.316161000000001</v>
+      </c>
+      <c r="C58">
+        <v>-76.587951000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>39.315331</v>
+      </c>
+      <c r="C59">
+        <v>-76.585611999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>39.316211000000003</v>
+      </c>
+      <c r="C60">
+        <v>-76.583573000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>39.317639</v>
+      </c>
+      <c r="C61">
+        <v>-76.582521999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>39.315778999999999</v>
+      </c>
+      <c r="C62">
+        <v>-76.582565000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>39.314767000000003</v>
+      </c>
+      <c r="C63">
+        <v>-76.582628999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>39.315165</v>
+      </c>
+      <c r="C64">
+        <v>-76.585290000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>39.314948999999999</v>
+      </c>
+      <c r="C65">
+        <v>-76.587586000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>39.314484</v>
+      </c>
+      <c r="C66">
+        <v>-76.589473999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>39.31465</v>
+      </c>
+      <c r="C67">
+        <v>-76.591609000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>39.316194000000003</v>
+      </c>
+      <c r="C68">
+        <v>-76.591159000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>39.317672000000002</v>
+      </c>
+      <c r="C69">
+        <v>-76.592016999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>39.318385999999997</v>
+      </c>
+      <c r="C70">
+        <v>-76.593219000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>39.319862999999998</v>
+      </c>
+      <c r="C71">
+        <v>-76.591780999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>39.359859999999998</v>
+      </c>
+      <c r="C72">
+        <v>-76.651470000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>39.358201000000001</v>
+      </c>
+      <c r="C73">
+        <v>-76.650890000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>39.356077999999997</v>
+      </c>
+      <c r="C74">
+        <v>-76.650225000000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>39.354418000000003</v>
+      </c>
+      <c r="C75">
+        <v>-76.648830000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>39.352128999999998</v>
+      </c>
+      <c r="C76">
+        <v>-76.647649999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>39.349589999999999</v>
+      </c>
+      <c r="C77">
+        <v>-76.647007000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>39.347383000000001</v>
+      </c>
+      <c r="C78">
+        <v>-76.647993999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>39.345624000000001</v>
+      </c>
+      <c r="C79">
+        <v>-76.649344999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>39.345641000000001</v>
+      </c>
+      <c r="C80">
+        <v>-76.651706000000004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>39.344262999999998</v>
+      </c>
+      <c r="C81">
+        <v>-76.651640999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>39.342587000000002</v>
+      </c>
+      <c r="C82">
+        <v>-76.650440000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>39.343533000000001</v>
+      </c>
+      <c r="C83">
+        <v>-76.648380000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>39.341807000000003</v>
+      </c>
+      <c r="C84">
+        <v>-76.648058000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>39.341810000000002</v>
+      </c>
+      <c r="C85">
+        <v>-76.648529999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>39.338123000000003</v>
+      </c>
+      <c r="C86">
+        <v>-76.648078999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>39.335898999999998</v>
+      </c>
+      <c r="C87">
+        <v>-76.646941999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>39.334505</v>
+      </c>
+      <c r="C88">
+        <v>-76.647801000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>39.335982000000001</v>
+      </c>
+      <c r="C89">
+        <v>-76.649023999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>39.339567000000002</v>
+      </c>
+      <c r="C90">
+        <v>-76.652456999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>39.336728999999998</v>
+      </c>
+      <c r="C91">
+        <v>-76.654387999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>39.336396999999998</v>
+      </c>
+      <c r="C92">
+        <v>-76.656104999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>39.338073000000001</v>
+      </c>
+      <c r="C93">
+        <v>-76.655288999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>39.338554999999999</v>
+      </c>
+      <c r="C94">
+        <v>-76.656983999999994</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>39.340330000000002</v>
+      </c>
+      <c r="C95">
+        <v>-76.657777999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>39.342537999999998</v>
+      </c>
+      <c r="C96">
+        <v>-76.65692</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>39.343980999999999</v>
+      </c>
+      <c r="C97">
+        <v>-76.657628000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <v>39.34355</v>
+      </c>
+      <c r="C98">
+        <v>-76.655354000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>39.345823000000003</v>
+      </c>
+      <c r="C99">
+        <v>-76.654473999999993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>39.347748000000003</v>
+      </c>
+      <c r="C100">
+        <v>-76.653208000000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>39.349449</v>
+      </c>
+      <c r="C101">
+        <v>-76.654077000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>39.350991999999998</v>
+      </c>
+      <c r="C102">
+        <v>-76.655579000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>39.350344999999997</v>
+      </c>
+      <c r="C103">
+        <v>-76.658647000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104">
+        <v>39.352369000000003</v>
+      </c>
+      <c r="C104">
+        <v>-76.657768000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>39.354095000000001</v>
+      </c>
+      <c r="C105">
+        <v>-76.656030000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>39.356020000000001</v>
+      </c>
+      <c r="C106">
+        <v>-76.654720999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>39.358756999999997</v>
+      </c>
+      <c r="C107">
+        <v>-76.653068000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>39.357762000000001</v>
+      </c>
+      <c r="C108">
+        <v>-76.654764</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>39.356699999999996</v>
+      </c>
+      <c r="C109">
+        <v>-76.657466999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>39.355505000000001</v>
+      </c>
+      <c r="C110">
+        <v>-76.660600000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>39.356467000000002</v>
+      </c>
+      <c r="C111">
+        <v>-76.662338000000005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>39.357188999999998</v>
+      </c>
+      <c r="C112">
+        <v>-76.660224999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>39.359279999999998</v>
+      </c>
+      <c r="C113">
+        <v>-76.660396000000006</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>39.358798999999998</v>
+      </c>
+      <c r="C114">
+        <v>-76.657692999999995</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>39.359229999999997</v>
+      </c>
+      <c r="C115">
+        <v>-76.655590000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>39.315916999999999</v>
+      </c>
+      <c r="C116">
+        <v>-76.640181999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>39.316299000000001</v>
+      </c>
+      <c r="C117">
+        <v>-76.643507999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>39.318325000000002</v>
+      </c>
+      <c r="C118">
+        <v>-76.646908999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>39.319951000000003</v>
+      </c>
+      <c r="C119">
+        <v>-76.649613000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120">
+        <v>39.321328999999999</v>
+      </c>
+      <c r="C120">
+        <v>-76.653068000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>39.323056000000001</v>
+      </c>
+      <c r="C121">
+        <v>-76.655428000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>39.324930999999999</v>
+      </c>
+      <c r="C122">
+        <v>-76.656737000000007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>39.327188999999997</v>
+      </c>
+      <c r="C123">
+        <v>-76.655963999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>39.329678000000001</v>
+      </c>
+      <c r="C124">
+        <v>-76.654570000000007</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>39.330283999999999</v>
+      </c>
+      <c r="C125">
+        <v>-76.655856999999997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>39.330632999999999</v>
+      </c>
+      <c r="C126">
+        <v>-76.652423999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>39.330101999999997</v>
+      </c>
+      <c r="C127">
+        <v>-76.649655999999993</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>39.329819000000001</v>
+      </c>
+      <c r="C128">
+        <v>-76.646844999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129">
+        <v>39.331296999999999</v>
+      </c>
+      <c r="C129">
+        <v>-76.644730999999993</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130">
+        <v>39.329687</v>
+      </c>
+      <c r="C130">
+        <v>-76.644537999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131">
+        <v>39.328972999999998</v>
+      </c>
+      <c r="C131">
+        <v>-76.642563999999993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132">
+        <v>39.327413</v>
+      </c>
+      <c r="C132">
+        <v>-76.641340999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133">
+        <v>39.326084999999999</v>
+      </c>
+      <c r="C133">
+        <v>-76.639088000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134">
+        <v>39.325254999999999</v>
+      </c>
+      <c r="C134">
+        <v>-76.635611999999995</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135">
+        <v>39.323661000000001</v>
+      </c>
+      <c r="C135">
+        <v>-76.633529999999993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136">
+        <v>39.322133999999998</v>
+      </c>
+      <c r="C136">
+        <v>-76.632199999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137">
+        <v>39.319943000000002</v>
+      </c>
+      <c r="C137">
+        <v>-76.630891000000005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138">
+        <v>39.317884999999997</v>
+      </c>
+      <c r="C138">
+        <v>-76.630634000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139">
+        <v>39.317253999999998</v>
+      </c>
+      <c r="C139">
+        <v>-76.633166000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>39.317121</v>
+      </c>
+      <c r="C140">
+        <v>-76.636041000000006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141">
+        <v>39.316240999999998</v>
+      </c>
+      <c r="C141">
+        <v>-76.638981000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142">
+        <v>39.321751999999996</v>
+      </c>
+      <c r="C142">
+        <v>-76.639752999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143">
+        <v>39.323861000000001</v>
+      </c>
+      <c r="C143">
+        <v>-76.644880999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144">
+        <v>39.316882</v>
+      </c>
+      <c r="C144">
+        <v>-76.649409000000006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145">
+        <v>39.278252000000002</v>
+      </c>
+      <c r="C145">
+        <v>-76.607147999999995</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146">
+        <v>39.279148999999997</v>
+      </c>
+      <c r="C146">
+        <v>-76.607168999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147">
+        <v>39.280005000000003</v>
+      </c>
+      <c r="C147">
+        <v>-76.607265999999996</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148">
+        <v>39.280676999999997</v>
+      </c>
+      <c r="C148">
+        <v>-76.607341000000005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149">
+        <v>39.280686000000003</v>
+      </c>
+      <c r="C149">
+        <v>-76.608413999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150">
+        <v>39.281723999999997</v>
+      </c>
+      <c r="C150">
+        <v>-76.608746999999994</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151">
+        <v>39.281723999999997</v>
+      </c>
+      <c r="C151">
+        <v>-76.610667000000007</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152">
+        <v>39.280918</v>
+      </c>
+      <c r="C152">
+        <v>-76.610135999999997</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153">
+        <v>39.280510999999997</v>
+      </c>
+      <c r="C153">
+        <v>-76.609728000000004</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154">
+        <v>39.279696999999999</v>
+      </c>
+      <c r="C154">
+        <v>-76.609684999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155">
+        <v>39.279099000000002</v>
+      </c>
+      <c r="C155">
+        <v>-76.609523999999993</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156">
+        <v>39.279165999999996</v>
+      </c>
+      <c r="C156">
+        <v>-76.608536999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157">
+        <v>39.279057999999999</v>
+      </c>
+      <c r="C157">
+        <v>-76.607517999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B158">
+        <v>39.249254000000001</v>
+      </c>
+      <c r="C158">
+        <v>-76.615099999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>15</v>
+      </c>
+      <c r="B159">
+        <v>39.247908000000002</v>
+      </c>
+      <c r="C159">
+        <v>-76.616838000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>15</v>
+      </c>
+      <c r="B160">
+        <v>39.246096999999999</v>
+      </c>
+      <c r="C160">
+        <v>-76.618318000000002</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161">
+        <v>39.246229999999997</v>
+      </c>
+      <c r="C161">
+        <v>-76.621301000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>15</v>
+      </c>
+      <c r="B162">
+        <v>39.244900000000001</v>
+      </c>
+      <c r="C162">
+        <v>-76.619262000000006</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>15</v>
+      </c>
+      <c r="B163">
+        <v>39.243437999999998</v>
+      </c>
+      <c r="C163">
+        <v>-76.620485000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164">
+        <v>39.241858999999998</v>
+      </c>
+      <c r="C164">
+        <v>-76.621557999999993</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>15</v>
+      </c>
+      <c r="B165">
+        <v>39.241610000000001</v>
+      </c>
+      <c r="C165">
+        <v>-76.618683000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166">
+        <v>39.241343999999998</v>
+      </c>
+      <c r="C166">
+        <v>-76.615486000000004</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167">
+        <v>39.241078000000002</v>
+      </c>
+      <c r="C167">
+        <v>-76.613382999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168">
+        <v>39.240845</v>
+      </c>
+      <c r="C168">
+        <v>-76.610356999999993</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>15</v>
+      </c>
+      <c r="B169">
+        <v>39.242739999999998</v>
+      </c>
+      <c r="C169">
+        <v>-76.609757000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>15</v>
+      </c>
+      <c r="B170">
+        <v>39.244767000000003</v>
+      </c>
+      <c r="C170">
+        <v>-76.611333999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171">
+        <v>39.206937000000003</v>
+      </c>
+      <c r="C171">
+        <v>-76.537795000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172">
+        <v>39.207667999999998</v>
+      </c>
+      <c r="C172">
+        <v>-76.540133999999995</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173">
+        <v>39.208899000000002</v>
+      </c>
+      <c r="C173">
+        <v>-76.539940999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174">
+        <v>39.209446999999997</v>
+      </c>
+      <c r="C174">
+        <v>-76.537109000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175">
+        <v>39.210161999999997</v>
+      </c>
+      <c r="C175">
+        <v>-76.534780999999995</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176">
+        <v>39.208134000000001</v>
+      </c>
+      <c r="C176">
+        <v>-76.533343000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177">
+        <v>39.208849000000001</v>
+      </c>
+      <c r="C177">
+        <v>-76.535510000000002</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178">
+        <v>39.207751000000002</v>
+      </c>
+      <c r="C178">
+        <v>-76.537377000000006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179">
+        <v>39.299450999999998</v>
+      </c>
+      <c r="C179">
+        <v>-76.687161000000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>8</v>
+      </c>
+      <c r="B180">
+        <v>39.300547000000002</v>
+      </c>
+      <c r="C180">
+        <v>-76.691624000000004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181">
+        <v>39.299551000000001</v>
+      </c>
+      <c r="C181">
+        <v>-76.695701</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182">
+        <v>39.300148999999998</v>
+      </c>
+      <c r="C182">
+        <v>-76.699392000000003</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>8</v>
+      </c>
+      <c r="B183">
+        <v>39.298256000000002</v>
+      </c>
+      <c r="C183">
+        <v>-76.701452000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B184">
+        <v>39.296695</v>
+      </c>
+      <c r="C184">
+        <v>-76.703554999999994</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185">
+        <v>39.298223</v>
+      </c>
+      <c r="C185">
+        <v>-76.705915000000005</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>8</v>
+      </c>
+      <c r="B186">
+        <v>39.299650999999997</v>
+      </c>
+      <c r="C186">
+        <v>-76.710335000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187">
+        <v>39.302306999999999</v>
+      </c>
+      <c r="C187">
+        <v>-76.708404000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>8</v>
+      </c>
+      <c r="B188">
+        <v>39.302739000000003</v>
+      </c>
+      <c r="C188">
+        <v>-76.711838</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B189">
+        <v>39.303038000000001</v>
+      </c>
+      <c r="C189">
+        <v>-76.707932</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B190">
+        <v>39.305461999999999</v>
+      </c>
+      <c r="C190">
+        <v>-76.703727000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191">
+        <v>39.309081999999997</v>
+      </c>
+      <c r="C191">
+        <v>-76.706858999999994</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192">
+        <v>39.309513000000003</v>
+      </c>
+      <c r="C192">
+        <v>-76.703083000000007</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193">
+        <v>39.309944999999999</v>
+      </c>
+      <c r="C193">
+        <v>-76.697675000000004</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194">
+        <v>39.313198999999997</v>
+      </c>
+      <c r="C194">
+        <v>-76.697118000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>8</v>
+      </c>
+      <c r="B195">
+        <v>39.314162000000003</v>
+      </c>
+      <c r="C195">
+        <v>-76.701452000000003</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B196">
+        <v>39.318345000000001</v>
+      </c>
+      <c r="C196">
+        <v>-76.703169000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>8</v>
+      </c>
+      <c r="B197">
+        <v>39.316453000000003</v>
+      </c>
+      <c r="C197">
+        <v>-76.699906999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>8</v>
+      </c>
+      <c r="B198">
+        <v>39.318877000000001</v>
+      </c>
+      <c r="C198">
+        <v>-76.698856000000006</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>8</v>
+      </c>
+      <c r="B199">
+        <v>39.317731000000002</v>
+      </c>
+      <c r="C199">
+        <v>-76.695421999999994</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200">
+        <v>39.317132999999998</v>
+      </c>
+      <c r="C200">
+        <v>-76.692589999999996</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201">
+        <v>39.314974999999997</v>
+      </c>
+      <c r="C201">
+        <v>-76.691775000000007</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202">
+        <v>39.313912999999999</v>
+      </c>
+      <c r="C202">
+        <v>-76.687268000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>8</v>
+      </c>
+      <c r="B203">
+        <v>39.312052999999999</v>
+      </c>
+      <c r="C203">
+        <v>-76.684522000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>8</v>
+      </c>
+      <c r="B204">
+        <v>39.309663</v>
+      </c>
+      <c r="C204">
+        <v>-76.684179</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205">
+        <v>39.307670000000002</v>
+      </c>
+      <c r="C205">
+        <v>-76.683019999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206">
+        <v>39.307088999999998</v>
+      </c>
+      <c r="C206">
+        <v>-76.678600000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207">
+        <v>39.306823999999999</v>
+      </c>
+      <c r="C207">
+        <v>-76.674608000000006</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208">
+        <v>39.302805999999997</v>
+      </c>
+      <c r="C208">
+        <v>-76.672462999999993</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209">
+        <v>39.299650999999997</v>
+      </c>
+      <c r="C209">
+        <v>-76.670530999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210">
+        <v>39.296894000000002</v>
+      </c>
+      <c r="C210">
+        <v>-76.670530999999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211">
+        <v>39.292808999999998</v>
+      </c>
+      <c r="C211">
+        <v>-76.669973999999996</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212">
+        <v>39.293340999999998</v>
+      </c>
+      <c r="C212">
+        <v>-76.666240000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213">
+        <v>39.289819999999999</v>
+      </c>
+      <c r="C213">
+        <v>-76.664136999999997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214">
+        <v>39.290385000000001</v>
+      </c>
+      <c r="C214">
+        <v>-76.671733000000003</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215">
+        <v>39.293506999999998</v>
+      </c>
+      <c r="C215">
+        <v>-76.671390000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>8</v>
+      </c>
+      <c r="B216">
+        <v>39.297260000000001</v>
+      </c>
+      <c r="C216">
+        <v>-76.673406999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217">
+        <v>39.297758000000002</v>
+      </c>
+      <c r="C217">
+        <v>-76.676883000000004</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>8</v>
+      </c>
+      <c r="B218">
+        <v>39.300248000000003</v>
+      </c>
+      <c r="C218">
+        <v>-76.680316000000005</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>8</v>
+      </c>
+      <c r="B219">
+        <v>39.302374</v>
+      </c>
+      <c r="C219">
+        <v>-76.683791999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>8</v>
+      </c>
+      <c r="B220">
+        <v>39.303055000000001</v>
+      </c>
+      <c r="C220">
+        <v>-76.687054000000003</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>8</v>
+      </c>
+      <c r="B221">
+        <v>39.300066000000001</v>
+      </c>
+      <c r="C221">
+        <v>-76.686752999999996</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222">
+        <v>39.299999</v>
+      </c>
+      <c r="C222">
+        <v>-76.690144000000004</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>8</v>
+      </c>
+      <c r="B223">
+        <v>39.299666999999999</v>
+      </c>
+      <c r="C223">
+        <v>-76.693835000000007</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>8</v>
+      </c>
+      <c r="B224">
+        <v>39.303319999999999</v>
+      </c>
+      <c r="C224">
+        <v>-76.700829999999996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225">
+        <v>39.308235000000003</v>
+      </c>
+      <c r="C225">
+        <v>-76.691688999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226">
+        <v>39.288618999999997</v>
+      </c>
+      <c r="C226">
+        <v>-76.682793000000004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B227">
+        <v>39.315024999999999</v>
+      </c>
+      <c r="C227">
+        <v>-76.665011000000007</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>9</v>
+      </c>
+      <c r="B228">
+        <v>39.314959000000002</v>
+      </c>
+      <c r="C228">
+        <v>-76.667629000000005</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>9</v>
+      </c>
+      <c r="B229">
+        <v>39.317813999999998</v>
+      </c>
+      <c r="C229">
+        <v>-76.668552000000005</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230">
+        <v>39.31964</v>
+      </c>
+      <c r="C230">
+        <v>-76.670654999999996</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>9</v>
+      </c>
+      <c r="B231">
+        <v>39.320802</v>
+      </c>
+      <c r="C231">
+        <v>-76.672865000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>9</v>
+      </c>
+      <c r="B232">
+        <v>39.323557999999998</v>
+      </c>
+      <c r="C232">
+        <v>-76.671362999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233">
+        <v>39.322859999999999</v>
+      </c>
+      <c r="C233">
+        <v>-76.668272999999999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>9</v>
+      </c>
+      <c r="B234">
+        <v>39.321001000000003</v>
+      </c>
+      <c r="C234">
+        <v>-76.665226000000004</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235">
+        <v>39.318013000000001</v>
+      </c>
+      <c r="C235">
+        <v>-76.665396999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>9</v>
+      </c>
+      <c r="B236">
+        <v>39.319192000000001</v>
+      </c>
+      <c r="C236">
+        <v>-76.666899000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237">
+        <v>39.255189999999999</v>
+      </c>
+      <c r="C237">
+        <v>-76.622938000000005</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>10</v>
+      </c>
+      <c r="B238">
+        <v>39.358325999999998</v>
+      </c>
+      <c r="C238">
+        <v>-76.632535000000004</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>10</v>
+      </c>
+      <c r="B239">
+        <v>39.258958</v>
+      </c>
+      <c r="C239">
+        <v>-76.631182999999993</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>10</v>
+      </c>
+      <c r="B240">
+        <v>39.257511999999998</v>
+      </c>
+      <c r="C240">
+        <v>-76.630733000000006</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>10</v>
+      </c>
+      <c r="B241">
+        <v>39.257196</v>
+      </c>
+      <c r="C241">
+        <v>-76.628715999999997</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>10</v>
+      </c>
+      <c r="B242">
+        <v>39.256414999999997</v>
+      </c>
+      <c r="C242">
+        <v>-76.626548999999997</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243">
+        <v>39.255251999999999</v>
+      </c>
+      <c r="C243">
+        <v>-76.625174999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244">
+        <v>39.254703999999997</v>
+      </c>
+      <c r="C244">
+        <v>-76.623158000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245">
+        <v>39.254371999999996</v>
+      </c>
+      <c r="C245">
+        <v>-76.621120000000005</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>10</v>
+      </c>
+      <c r="B246">
+        <v>39.254005999999997</v>
+      </c>
+      <c r="C246">
+        <v>-76.619039000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>10</v>
+      </c>
+      <c r="B247">
+        <v>39.253176000000003</v>
+      </c>
+      <c r="C247">
+        <v>-76.616141999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248">
+        <v>39.286251</v>
+      </c>
+      <c r="C248">
+        <v>-76.584070999999994</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249">
+        <v>39.288044999999997</v>
+      </c>
+      <c r="C249">
+        <v>-76.584284999999994</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250">
+        <v>39.289904999999997</v>
+      </c>
+      <c r="C250">
+        <v>-76.584413999999995</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>11</v>
+      </c>
+      <c r="B251">
+        <v>39.291764999999998</v>
+      </c>
+      <c r="C251">
+        <v>-76.584500000000006</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252">
+        <v>39.291848000000002</v>
+      </c>
+      <c r="C252">
+        <v>-76.582462000000007</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253">
+        <v>39.291997000000002</v>
+      </c>
+      <c r="C253">
+        <v>-76.579521999999997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254">
+        <v>39.292079999999999</v>
+      </c>
+      <c r="C254">
+        <v>-76.576475000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>11</v>
+      </c>
+      <c r="B255">
+        <v>39.290103999999999</v>
+      </c>
+      <c r="C255">
+        <v>-76.576132000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256">
+        <v>39.289879999999997</v>
+      </c>
+      <c r="C256">
+        <v>-76.573341999999997</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257">
+        <v>39.288359999999997</v>
+      </c>
+      <c r="C257">
+        <v>-76.573256000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258">
+        <v>39.286549999999998</v>
+      </c>
+      <c r="C258">
+        <v>-76.573126999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259">
+        <v>39.286482999999997</v>
+      </c>
+      <c r="C259">
+        <v>-76.575616999999994</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260">
+        <v>39.286333999999997</v>
+      </c>
+      <c r="C260">
+        <v>-76.578299000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>11</v>
+      </c>
+      <c r="B261">
+        <v>39.286200999999998</v>
+      </c>
+      <c r="C261">
+        <v>-76.581581999999997</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262">
+        <v>39.289023999999998</v>
+      </c>
+      <c r="C262">
+        <v>-76.579301999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>16</v>
+      </c>
+      <c r="B263">
+        <v>39.223376000000002</v>
+      </c>
+      <c r="C263">
+        <v>-76.602134000000007</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>16</v>
+      </c>
+      <c r="B264">
+        <v>39.224290000000003</v>
+      </c>
+      <c r="C264">
+        <v>-76.602198000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>16</v>
+      </c>
+      <c r="B265">
+        <v>39.224356999999998</v>
+      </c>
+      <c r="C265">
+        <v>-76.600396000000003</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>16</v>
+      </c>
+      <c r="B266">
+        <v>39.225735999999998</v>
+      </c>
+      <c r="C266">
+        <v>-76.600588999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>16</v>
+      </c>
+      <c r="B267">
+        <v>39.227364999999999</v>
+      </c>
+      <c r="C267">
+        <v>-76.601231999999996</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>16</v>
+      </c>
+      <c r="B268">
+        <v>39.226900000000001</v>
+      </c>
+      <c r="C268">
+        <v>-76.603013000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>16</v>
+      </c>
+      <c r="B269">
+        <v>39.227148999999997</v>
+      </c>
+      <c r="C269">
+        <v>-76.604129</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>16</v>
+      </c>
+      <c r="B270">
+        <v>39.225985999999999</v>
+      </c>
+      <c r="C270">
+        <v>-76.605095000000006</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>16</v>
+      </c>
+      <c r="B271">
+        <v>39.225436999999999</v>
+      </c>
+      <c r="C271">
+        <v>-76.606392999999997</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>16</v>
+      </c>
+      <c r="B272">
+        <v>39.226252000000002</v>
+      </c>
+      <c r="C272">
+        <v>-76.601634000000004</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273">
+        <v>39.224930000000001</v>
+      </c>
+      <c r="C273">
+        <v>-76.605084000000005</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>16</v>
+      </c>
+      <c r="B274">
+        <v>39.224980000000002</v>
+      </c>
+      <c r="C274">
+        <v>-76.603066999999996</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>12</v>
+      </c>
+      <c r="B275">
+        <v>39.270220000000002</v>
+      </c>
+      <c r="C275">
+        <v>-76.609145999999996</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>12</v>
+      </c>
+      <c r="B276">
+        <v>39.268891000000004</v>
+      </c>
+      <c r="C276">
+        <v>-76.608953</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>12</v>
+      </c>
+      <c r="B277">
+        <v>39.268875000000001</v>
+      </c>
+      <c r="C277">
+        <v>-76.606656999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>12</v>
+      </c>
+      <c r="B278">
+        <v>39.270353</v>
+      </c>
+      <c r="C278">
+        <v>-76.606635999999995</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>12</v>
+      </c>
+      <c r="B279">
+        <v>39.271666000000003</v>
+      </c>
+      <c r="C279">
+        <v>-76.607022000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>12</v>
+      </c>
+      <c r="B280">
+        <v>39.271631999999997</v>
+      </c>
+      <c r="C280">
+        <v>-76.608975000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>12</v>
+      </c>
+      <c r="B281">
+        <v>39.270527999999999</v>
+      </c>
+      <c r="C281">
+        <v>-76.607772999999995</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>13</v>
+      </c>
+      <c r="B282">
+        <v>39.328550999999997</v>
+      </c>
+      <c r="C282">
+        <v>-76.636718999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283">
+        <v>39.330243000000003</v>
+      </c>
+      <c r="C283">
+        <v>-76.637234000000007</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284">
+        <v>39.329861999999999</v>
+      </c>
+      <c r="C284">
+        <v>-76.635109999999997</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>13</v>
+      </c>
+      <c r="B285">
+        <v>39.328400999999999</v>
+      </c>
+      <c r="C285">
+        <v>-76.634444999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>13</v>
+      </c>
+      <c r="B286">
+        <v>39.327804</v>
+      </c>
+      <c r="C286">
+        <v>-76.635581999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287">
+        <v>39.329422000000001</v>
+      </c>
+      <c r="C287">
+        <v>-76.635903999999996</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288">
         <v>39.324584999999999</v>
       </c>
-      <c r="C18">
+      <c r="C288">
         <v>-76.618823000000006</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289">
+        <v>39.323664999999998</v>
+      </c>
+      <c r="C289">
+        <v>-76.617857000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+      <c r="B290">
+        <v>39.325789999999998</v>
+      </c>
+      <c r="C290">
+        <v>-76.617900000000006</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>14</v>
+      </c>
+      <c r="B291">
+        <v>39.324728</v>
+      </c>
+      <c r="C291">
+        <v>-76.619595000000004</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>14</v>
+      </c>
+      <c r="B292">
+        <v>39.323614999999997</v>
+      </c>
+      <c r="C292">
+        <v>-76.619595000000004</v>
       </c>
     </row>
   </sheetData>
